--- a/medicine/Enfance/Le_Bisou_de_la_sorcière/Le_Bisou_de_la_sorcière.xlsx
+++ b/medicine/Enfance/Le_Bisou_de_la_sorcière/Le_Bisou_de_la_sorcière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Bisou_de_la_sorci%C3%A8re</t>
+          <t>Le_Bisou_de_la_sorcière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bisou de la sorcière est un conte de littérature d'enfance et de jeunesse écrit par Henriette Bichonnier, illustré par Daniel Maja, publié en 1987 dans la collection GP Rouge et or, du groupe Presses de la Cité. Le conte est adapté au théâtre en 2008 par la compagnie Lilliput et l'auteur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Bisou_de_la_sorci%C3%A8re</t>
+          <t>Le_Bisou_de_la_sorcière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>L'héroïne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ursule la bergère.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Bisou_de_la_sorci%C3%A8re</t>
+          <t>Le_Bisou_de_la_sorcière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ouganou la sorcière
 Crapoto le crapaud géant
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Bisou_de_la_sorci%C3%A8re</t>
+          <t>Le_Bisou_de_la_sorcière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ouganou la sorcière a tant de travail qu'elle cherche une employée de maison pour l'aider à préparer ses poisons. Elle parcourt le pays sur le dos de son crapaud géant. Mais malgré ses offres allèchantes, personne ne répond à ses appels et tout le monde se cache, sauf Ursule la bergère. La sorcière propose à Ursule de la suivre dans son château, mais comme Ursule refuse, Ouganou lui lance un sort : son baiser sera mortel. Ursule est donc obligée de quitter le village et de s'installer dans la forêt où elle construit une cabane. Mais l'arrivée de deux chevaliers et les ruses d'Ursule viendront à bout de la sorcière et de son terrible sort.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le_Bisou_de_la_sorci%C3%A8re</t>
+          <t>Le_Bisou_de_la_sorcière</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Exploitation pédagogique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>les Plantes médicinales et liste des plantes médicinales en vente libre
 la  potion magique
